--- a/FEM/timing.xlsx
+++ b/FEM/timing.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HHH/Desktop/Git/FEM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26686A71-9967-E049-9848-2D68660ED122}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC803713-5250-7243-BDFE-2477014F6F58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="680" windowWidth="28040" windowHeight="17040" xr2:uid="{E942B733-156D-AC49-9E39-F8C3366DE2E2}"/>
+    <workbookView xWindow="640" yWindow="820" windowWidth="28040" windowHeight="17040" xr2:uid="{E942B733-156D-AC49-9E39-F8C3366DE2E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$14</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$2:$C$14</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,25 +36,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Num of Nodes</t>
   </si>
   <si>
-    <t>Running time (s), including input/output</t>
+    <t>Num of Elements</t>
+  </si>
+  <si>
+    <t>Running time (s), including I/O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +82,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,7 +194,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12628753479249219"/>
+          <c:y val="0.1200583486714985"/>
+          <c:w val="0.87371246520750778"/>
+          <c:h val="0.77485263905542356"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -164,15 +212,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Running time (s), including input/output</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Node</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -215,48 +255,96 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>617</c:v>
+                  <c:v>9901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>970</c:v>
+                  <c:v>13365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1492</c:v>
+                  <c:v>18585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2220</c:v>
+                  <c:v>24418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3208</c:v>
+                  <c:v>30645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53730</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63765</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74233</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96838</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.67</c:v>
+                  <c:v>0.83899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.15</c:v>
+                  <c:v>1.302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.94</c:v>
+                  <c:v>2.0760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.78</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.510000000000005</c:v>
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.548</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -269,7 +357,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="b"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1148,16 +1235,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1482,67 +1569,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8ED1A3-F350-C84F-8DDD-46E339251D58}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>617</v>
-      </c>
-      <c r="B2">
-        <v>5.67</v>
+    <row r="2" spans="1:3" ht="18">
+      <c r="A2" s="1">
+        <v>9901</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3224</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>970</v>
-      </c>
-      <c r="B3">
-        <v>5.15</v>
+    <row r="3" spans="1:3" ht="18">
+      <c r="A3" s="1">
+        <v>13365</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4366</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.302</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1492</v>
-      </c>
-      <c r="B4">
-        <v>11.94</v>
+    <row r="4" spans="1:3" ht="18">
+      <c r="A4" s="1">
+        <v>18585</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6090</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2220</v>
-      </c>
-      <c r="B5">
-        <v>33.78</v>
+    <row r="5" spans="1:3" ht="18">
+      <c r="A5" s="1">
+        <v>24418</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8019</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.54</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>3208</v>
-      </c>
-      <c r="B6">
-        <v>73.510000000000005</v>
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="1">
+        <v>30645</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10080</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18">
+      <c r="A7" s="1">
+        <v>38023</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12524</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.1829999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18">
+      <c r="A8" s="1">
+        <v>46531</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15344</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.7850000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18">
+      <c r="A9" s="1">
+        <v>53730</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17731</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="1">
+        <v>63765</v>
+      </c>
+      <c r="B10" s="1">
+        <v>21060</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10.035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="1">
+        <v>74233</v>
+      </c>
+      <c r="B11" s="1">
+        <v>24534</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10.879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" s="1">
+        <v>84825</v>
+      </c>
+      <c r="B12" s="1">
+        <v>28050</v>
+      </c>
+      <c r="C12" s="1">
+        <v>14.548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18">
+      <c r="A13" s="1">
+        <v>96838</v>
+      </c>
+      <c r="B13" s="1">
+        <v>32039</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14.202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18">
+      <c r="A14" s="1">
+        <v>110161</v>
+      </c>
+      <c r="B14" s="1">
+        <v>36464</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14.529</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>